--- a/wikiimages/Puzzle-12.xlsx
+++ b/wikiimages/Puzzle-12.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>white_king</t>
   </si>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42373.494639930555" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -229,17 +229,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="12">
+        <s v="white_rook"/>
+        <m/>
+        <s v="black_bishop"/>
+        <s v="black_king"/>
+        <s v="black_knight"/>
         <s v="black_rook"/>
-        <m/>
+        <s v="black_pawn"/>
+        <s v="white_pawn"/>
+        <s v="white_knight"/>
+        <s v="white_bishop"/>
         <s v="black_queen"/>
-        <s v="black_king"/>
-        <s v="black_pawn"/>
-        <s v="black_bishop"/>
-        <s v="white_knight"/>
-        <s v="white_queen"/>
-        <s v="white_pawn"/>
-        <s v="white_rook"/>
         <s v="white_king"/>
       </sharedItems>
     </cacheField>
@@ -267,17 +268,17 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -287,116 +288,116 @@
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="0"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -407,7 +408,7 @@
   <r>
     <x v="3"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -427,17 +428,17 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -457,7 +458,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -467,12 +468,12 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="5"/>
@@ -487,27 +488,27 @@
   <r>
     <x v="5"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="5"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -522,52 +523,52 @@
   <r>
     <x v="6"/>
     <x v="5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
     <x v="9"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="7"/>
@@ -578,7 +579,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -934,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -973,12 +974,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,18 +993,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1011,12 +1012,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,15 +1067,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1082,12 +1083,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
         <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1171,23 +1175,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
         <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1206,15 +1210,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1233,15 +1234,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1268,34 +1266,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
         <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1322,15 +1317,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1341,19 +1333,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1373,50 +1371,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1457,15 +1458,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
       <c r="B57">
         <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,39 +1485,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
       <c r="B63">
         <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,7 +1576,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N14"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,12 +1597,12 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>0</v>
       </c>
@@ -1627,7 +1631,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1653,7 +1660,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1681,7 +1691,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -1699,7 +1712,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1733,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
@@ -1735,7 +1754,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
@@ -1759,7 +1781,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1806,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1807,7 +1835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1836,12 +1864,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>9</v>
       </c>
